--- a/reference/hardware/Jag_Speedy/Jag_Speedy_VRConditioner/BOM.xlsx
+++ b/reference/hardware/Jag_Speedy/Jag_Speedy_VRConditioner/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andys\Documents\GitHub\speeduino\reference\hardware\Jag_Speedy\Jag_Speedy_VRConditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA674E5-4964-4B92-986F-DA3D7E635859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E3C37-0AE4-4A50-AF0D-BB91DEAEBD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1275" windowWidth="30960" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Value</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>Boards</t>
+  </si>
+  <si>
+    <t>Board Breakdown</t>
+  </si>
+  <si>
+    <t>Components + VAT</t>
+  </si>
+  <si>
+    <t>Import Tax etc.</t>
   </si>
 </sst>
 </file>
@@ -470,16 +479,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -875,10 +884,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1523,10 +1532,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="9"/>
       <c r="K15" s="1" t="s">
         <v>66</v>
@@ -1550,12 +1559,49 @@
       <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="16">
         <v>5.58</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="17">
         <f>K17/J17</f>
         <v>1.1160000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12">
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12">
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="17">
+        <f>L15*1.2</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12">
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="17">
+        <f>L17</f>
+        <v>1.1160000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="9:12">
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12">
+      <c r="L23" s="17">
+        <f>SUM(L20:L22)</f>
+        <v>8.1059999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/reference/hardware/Jag_Speedy/Jag_Speedy_VRConditioner/BOM.xlsx
+++ b/reference/hardware/Jag_Speedy/Jag_Speedy_VRConditioner/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andys\Documents\GitHub\speeduino\reference\hardware\Jag_Speedy\Jag_Speedy_VRConditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E3C37-0AE4-4A50-AF0D-BB91DEAEBD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66087C1E-E97B-4EC8-B0EB-C08979B63A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VR" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,13 +482,14 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -887,7 +888,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L25" sqref="I25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1532,10 +1533,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="9"/>
       <c r="K15" s="1" t="s">
         <v>66</v>
@@ -1553,53 +1554,71 @@
       </c>
     </row>
     <row r="17" spans="9:12">
-      <c r="I17" t="s">
+      <c r="I17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="19">
         <v>5</v>
       </c>
       <c r="K17" s="16">
         <v>5.58</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="20">
         <f>K17/J17</f>
         <v>1.1160000000000001</v>
       </c>
     </row>
+    <row r="18" spans="9:12">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
     <row r="19" spans="9:12">
-      <c r="I19" t="s">
+      <c r="I19" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="9:12">
-      <c r="I20" t="s">
+      <c r="I20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="17">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20">
         <f>L15*1.2</f>
         <v>6.99</v>
       </c>
     </row>
     <row r="21" spans="9:12">
-      <c r="I21" t="s">
+      <c r="I21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="17">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20">
         <f>L17</f>
         <v>1.1160000000000001</v>
       </c>
     </row>
     <row r="22" spans="9:12">
-      <c r="I22" t="s">
+      <c r="I22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="17">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="9:12">
-      <c r="L23" s="17">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20">
         <f>SUM(L20:L22)</f>
         <v>8.1059999999999999</v>
       </c>
